--- a/Outils/30-02-creationBDGestionFilmsW56-v2020-10-28.xlsx
+++ b/Outils/30-02-creationBDGestionFilmsW56-v2020-10-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoursA2020\420-W56\19-Cours 19-Projet-FS\ProjetFinSession2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielMarrero\Documents\GestionDVDs\Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383083B7-E8D7-495C-835F-9F5746FE3B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0022075-3F2C-4A16-93DF-D1E979DED9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="56910" yWindow="-135" windowWidth="23625" windowHeight="14595" tabRatio="839" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acteurs" sheetId="1" r:id="rId1"/>
@@ -1566,7 +1566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2041,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2409,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B19"/>
     </sheetView>
   </sheetViews>
@@ -2586,7 +2588,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2642,7 +2644,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3156,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3596,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
@@ -3687,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4121,7 +4123,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4440,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5990,8 +5992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B45"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6374,8 +6376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B58"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6862,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B41"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7214,8 +7216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B46"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
